--- a/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/3 ANALISIS/4 Analisis PESTEL.xlsx
+++ b/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/3 ANALISIS/4 Analisis PESTEL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\3 ANALISIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\3 ANALISIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D24733-3398-4ABB-8B8E-AFE587B78AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DF449C-E1C7-43D1-8200-001024FA5625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -438,9 +438,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -516,6 +513,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,7 +818,7 @@
   <dimension ref="B2:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -830,817 +833,825 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="37"/>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="H3" s="36" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="10"/>
+      <c r="H3" s="35" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="37"/>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="37"/>
-      <c r="D5" s="4" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="10"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="10"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D7" s="5"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="21"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="B8" s="20"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="21"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="B9" s="20"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="2:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="B13" s="22"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="B15" s="22"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="2:9" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="F16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="F17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="F18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:9" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="F19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="F20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="23"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="B21" s="22"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="2:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="23"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="B23" s="22"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="F24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="2:9" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="F25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
     </row>
     <row r="26" spans="2:9" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="F26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="F27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
     </row>
     <row r="28" spans="2:9" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="F28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
     </row>
     <row r="29" spans="2:9" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="F29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
     </row>
     <row r="30" spans="2:9" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
     </row>
     <row r="31" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="23"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="B31" s="22"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
     </row>
     <row r="34" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="2:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="36" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
     </row>
     <row r="38" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="31"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
+      <c r="B38" s="30"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
     </row>
     <row r="39" spans="2:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E39" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="28" t="s">
+      <c r="F39" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="G39" s="28" t="s">
+      <c r="G39" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
     </row>
     <row r="40" spans="2:9" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="32" t="s">
+      <c r="E40" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="32" t="s">
+      <c r="F40" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="27" t="s">
+      <c r="G40" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
     </row>
     <row r="41" spans="2:9" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="32" t="s">
+      <c r="E41" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="F41" s="32" t="s">
+      <c r="F41" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="27" t="s">
+      <c r="G41" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
     </row>
     <row r="42" spans="2:9" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="32" t="s">
+      <c r="D42" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E42" s="32" t="s">
+      <c r="E42" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="F42" s="32" t="s">
+      <c r="F42" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G42" s="27" t="s">
+      <c r="G42" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
     </row>
     <row r="43" spans="2:9" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="32" t="s">
+      <c r="D43" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="32" t="s">
+      <c r="E43" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="32" t="s">
+      <c r="F43" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="G43" s="27" t="s">
+      <c r="G43" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
     </row>
     <row r="44" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="31"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
+      <c r="B44" s="30"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
     </row>
     <row r="45" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
     </row>
     <row r="46" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B46" s="33"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
+      <c r="B46" s="32"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
     </row>
     <row r="47" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
     </row>
     <row r="48" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
     </row>
     <row r="49" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
     </row>
     <row r="50" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
     </row>
     <row r="51" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
     </row>
     <row r="52" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
     </row>
     <row r="53" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
     </row>
     <row r="54" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
     </row>
     <row r="55" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B55"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
     </row>
     <row r="56" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
     </row>
     <row r="57" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
     </row>
     <row r="58" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
     </row>
     <row r="59" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B59"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
     </row>
     <row r="60" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B60"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
     </row>
     <row r="61" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B61"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
     </row>
     <row r="62" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B62"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
     </row>
     <row r="63" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B63"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
     </row>
     <row r="64" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B64"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B65" s="21"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
+      <c r="B65" s="20"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
     </row>
     <row r="66" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="16" t="s">
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
+      <c r="F66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
     </row>
     <row r="67" spans="2:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="18" t="s">
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
+      <c r="F67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="M70" s="17"/>
+      <c r="M70" s="16"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="M71" s="17"/>
+      <c r="M71" s="16"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="20"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="19"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
     </row>
     <row r="76" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="10"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="10"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B84" s="12"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="10"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B85" s="8"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="11"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="10"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B86" s="8"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="11"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="10"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B87" s="8"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="11"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="10"/>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B88" s="8"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="11"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="10"/>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B89" s="8"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="11"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="10"/>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B90" s="12"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="10"/>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B91" s="12"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="10"/>
     </row>
     <row r="93" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B93" s="6"/>
+      <c r="B93" s="5"/>
     </row>
     <row r="94" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B94" s="6"/>
+      <c r="B94" s="5"/>
     </row>
     <row r="95" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B95" s="14"/>
-      <c r="C95" s="13"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="12"/>
     </row>
     <row r="96" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B96" s="15"/>
-      <c r="C96" s="13"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="12"/>
     </row>
     <row r="97" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B97" s="15"/>
-      <c r="C97" s="13"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="12"/>
     </row>
     <row r="98" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B98" s="15"/>
-      <c r="C98" s="13"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="12"/>
     </row>
     <row r="99" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B99" s="15"/>
-      <c r="C99" s="13"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="12"/>
     </row>
     <row r="100" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B100" s="15"/>
-      <c r="C100" s="13"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="12"/>
     </row>
     <row r="101" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B101" s="15"/>
-      <c r="C101" s="13"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="12"/>
     </row>
     <row r="102" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B102" s="15"/>
-      <c r="C102" s="13"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="12"/>
     </row>
     <row r="103" spans="2:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B103" s="15"/>
-      <c r="C103" s="13"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="12"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B104" s="12"/>
-      <c r="C104" s="13"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0" footer="0"/>
